--- a/data/pca/factorExposure/factorExposure_2019-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1186911976871126</v>
+        <v>0.07879273848189747</v>
       </c>
       <c r="C2">
-        <v>0.01890297790217431</v>
+        <v>-0.01197735547108857</v>
       </c>
       <c r="D2">
-        <v>0.02814950501060032</v>
+        <v>0.03551899005367916</v>
       </c>
       <c r="E2">
-        <v>-0.1041005017081348</v>
+        <v>-0.1379395538193662</v>
       </c>
       <c r="F2">
-        <v>0.05884607361289577</v>
+        <v>-0.01128147373253154</v>
       </c>
       <c r="G2">
-        <v>0.09016958766009915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0761403759098012</v>
+      </c>
+      <c r="H2">
+        <v>0.07999008725436077</v>
+      </c>
+      <c r="I2">
+        <v>0.075416677373684</v>
+      </c>
+      <c r="J2">
+        <v>-0.03492280387381235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2046146090711662</v>
+        <v>0.1591017716969834</v>
       </c>
       <c r="C3">
-        <v>-0.07158666742318648</v>
+        <v>-0.08485704166651015</v>
       </c>
       <c r="D3">
-        <v>-0.07744391146655617</v>
+        <v>-0.04319392136729914</v>
       </c>
       <c r="E3">
-        <v>-0.3149736778107994</v>
+        <v>-0.3619759958202629</v>
       </c>
       <c r="F3">
-        <v>-0.02659841231916674</v>
+        <v>-0.1186558281771408</v>
       </c>
       <c r="G3">
-        <v>0.3196690388181719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01941992041057176</v>
+      </c>
+      <c r="H3">
+        <v>0.2684042269661648</v>
+      </c>
+      <c r="I3">
+        <v>0.1600664320158993</v>
+      </c>
+      <c r="J3">
+        <v>0.05148198748287532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09620290229176265</v>
+        <v>0.07294123162996281</v>
       </c>
       <c r="C4">
-        <v>-0.01555101074057543</v>
+        <v>-0.02928943769036057</v>
       </c>
       <c r="D4">
-        <v>0.0004164149866051351</v>
+        <v>0.0229533178834906</v>
       </c>
       <c r="E4">
-        <v>-0.09287072664590246</v>
+        <v>-0.08764579941551447</v>
       </c>
       <c r="F4">
-        <v>0.03544005864255375</v>
+        <v>-0.05564875704752219</v>
       </c>
       <c r="G4">
-        <v>0.02499111007784749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03323945055037564</v>
+      </c>
+      <c r="H4">
+        <v>0.03899985774846158</v>
+      </c>
+      <c r="I4">
+        <v>0.01321023902805018</v>
+      </c>
+      <c r="J4">
+        <v>0.04518501022053854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01024514338808342</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004650553750784904</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.001711011776130267</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006737658213918271</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-3.816748961355361e-05</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01303643475898225</v>
+      </c>
+      <c r="H6">
+        <v>0.002746260025114537</v>
+      </c>
+      <c r="I6">
+        <v>0.002288766738629636</v>
+      </c>
+      <c r="J6">
+        <v>0.002749333600004745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04228252640246947</v>
+        <v>0.03551960535459894</v>
       </c>
       <c r="C7">
-        <v>-0.0007072950194659495</v>
+        <v>-0.01344535708326877</v>
       </c>
       <c r="D7">
-        <v>0.02480674682781852</v>
+        <v>0.01745853403549411</v>
       </c>
       <c r="E7">
-        <v>-0.07188538156626904</v>
+        <v>-0.05739935428026909</v>
       </c>
       <c r="F7">
-        <v>-0.05508337471631822</v>
+        <v>-0.03007912526079915</v>
       </c>
       <c r="G7">
-        <v>0.02058688321913312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01839003237048651</v>
+      </c>
+      <c r="H7">
+        <v>0.04511249597196979</v>
+      </c>
+      <c r="I7">
+        <v>-0.004553795121692441</v>
+      </c>
+      <c r="J7">
+        <v>0.03229190617016179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0396197365571742</v>
+        <v>0.03132480430539076</v>
       </c>
       <c r="C8">
-        <v>-0.03133368262730438</v>
+        <v>-0.03365507978831838</v>
       </c>
       <c r="D8">
-        <v>-0.008831787446249508</v>
+        <v>0.007708806242749514</v>
       </c>
       <c r="E8">
-        <v>-0.07309293116937692</v>
+        <v>-0.07861804472734382</v>
       </c>
       <c r="F8">
-        <v>-0.005872097705137154</v>
+        <v>-0.04802952780234004</v>
       </c>
       <c r="G8">
-        <v>0.0509217572973698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.003935349682622986</v>
+      </c>
+      <c r="H8">
+        <v>0.05817482097752879</v>
+      </c>
+      <c r="I8">
+        <v>0.0352373521105375</v>
+      </c>
+      <c r="J8">
+        <v>0.02536753373461244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08472544396532472</v>
+        <v>0.06266268133305794</v>
       </c>
       <c r="C9">
-        <v>-0.01670610949629061</v>
+        <v>-0.02726891038471218</v>
       </c>
       <c r="D9">
-        <v>0.01429950183222053</v>
+        <v>0.02422931173714715</v>
       </c>
       <c r="E9">
-        <v>-0.08488929192432897</v>
+        <v>-0.08491473646321311</v>
       </c>
       <c r="F9">
-        <v>0.01954711264834945</v>
+        <v>-0.06060131255344128</v>
       </c>
       <c r="G9">
-        <v>0.0276960033581636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02172438787158925</v>
+      </c>
+      <c r="H9">
+        <v>0.03667088238055589</v>
+      </c>
+      <c r="I9">
+        <v>0.01004396080794141</v>
+      </c>
+      <c r="J9">
+        <v>0.0138945996665739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02081858196578683</v>
+        <v>0.004288103200533025</v>
       </c>
       <c r="C10">
-        <v>0.1612618699064187</v>
+        <v>0.1595879933767309</v>
       </c>
       <c r="D10">
-        <v>-0.003202672016278818</v>
+        <v>-0.0137866505762071</v>
       </c>
       <c r="E10">
-        <v>-0.03160760749196762</v>
+        <v>-0.04760446603882255</v>
       </c>
       <c r="F10">
-        <v>-0.008448723818724427</v>
+        <v>-0.005071534109888759</v>
       </c>
       <c r="G10">
-        <v>-0.01438611745736586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01283523258052785</v>
+      </c>
+      <c r="H10">
+        <v>-0.01857950774230252</v>
+      </c>
+      <c r="I10">
+        <v>0.1090681339024109</v>
+      </c>
+      <c r="J10">
+        <v>0.06439207148797869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.06012665996422695</v>
+        <v>0.05099865623255218</v>
       </c>
       <c r="C11">
-        <v>0.003819172779194904</v>
+        <v>-0.01490106354365946</v>
       </c>
       <c r="D11">
-        <v>-0.01222338927379008</v>
+        <v>0.004977596014015886</v>
       </c>
       <c r="E11">
-        <v>-0.04329760050573098</v>
+        <v>-0.04908318797638292</v>
       </c>
       <c r="F11">
-        <v>-0.005266833561719033</v>
+        <v>-0.003909124720975164</v>
       </c>
       <c r="G11">
-        <v>-0.009592115915662242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0002416939434802261</v>
+      </c>
+      <c r="H11">
+        <v>0.02096932715463471</v>
+      </c>
+      <c r="I11">
+        <v>-0.01181037046444811</v>
+      </c>
+      <c r="J11">
+        <v>-0.002020511194703942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04996788243556319</v>
+        <v>0.04880280480184204</v>
       </c>
       <c r="C12">
-        <v>-0.001545471361437326</v>
+        <v>-0.01651446236850079</v>
       </c>
       <c r="D12">
-        <v>-0.006189511513054968</v>
+        <v>0.007420604060041631</v>
       </c>
       <c r="E12">
-        <v>-0.02781346267640716</v>
+        <v>-0.02554359165200058</v>
       </c>
       <c r="F12">
-        <v>-0.009660443831994161</v>
+        <v>-0.01931617564942448</v>
       </c>
       <c r="G12">
-        <v>0.002487338538460282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.004000965484725848</v>
+      </c>
+      <c r="H12">
+        <v>0.009932281667209716</v>
+      </c>
+      <c r="I12">
+        <v>-0.01875315322238065</v>
+      </c>
+      <c r="J12">
+        <v>-0.004957512077153061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05811507540303673</v>
+        <v>0.03959672466527794</v>
       </c>
       <c r="C13">
-        <v>-0.01144823577604342</v>
+        <v>-0.01872899974128853</v>
       </c>
       <c r="D13">
-        <v>-0.01954490274190787</v>
+        <v>0.00447422477145772</v>
       </c>
       <c r="E13">
-        <v>-0.1097222206555147</v>
+        <v>-0.1060849318678358</v>
       </c>
       <c r="F13">
-        <v>-0.001527573437237164</v>
+        <v>-0.009804696818753903</v>
       </c>
       <c r="G13">
-        <v>0.02805251953200207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.00139427528055206</v>
+      </c>
+      <c r="H13">
+        <v>0.05529077980474764</v>
+      </c>
+      <c r="I13">
+        <v>0.03410696445703441</v>
+      </c>
+      <c r="J13">
+        <v>-0.01573039072373355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0373571467279567</v>
+        <v>0.02924883701503876</v>
       </c>
       <c r="C14">
-        <v>-0.003574775295670079</v>
+        <v>-0.01193024774277075</v>
       </c>
       <c r="D14">
-        <v>0.01709521127128944</v>
+        <v>0.02103302771503693</v>
       </c>
       <c r="E14">
-        <v>-0.02172483868490603</v>
+        <v>-0.03742568856050061</v>
       </c>
       <c r="F14">
-        <v>-0.00672011752785389</v>
+        <v>-0.02037567071956446</v>
       </c>
       <c r="G14">
-        <v>0.03687729379024723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01311145054107959</v>
+      </c>
+      <c r="H14">
+        <v>0.06373056328810461</v>
+      </c>
+      <c r="I14">
+        <v>0.02263631863916046</v>
+      </c>
+      <c r="J14">
+        <v>0.013184214721394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05241626369915905</v>
+        <v>0.04307633935079132</v>
       </c>
       <c r="C16">
-        <v>-0.0147094877539639</v>
+        <v>-0.02438718263387058</v>
       </c>
       <c r="D16">
-        <v>-0.02376872641234163</v>
+        <v>-0.001601281120214674</v>
       </c>
       <c r="E16">
-        <v>-0.04239537260071749</v>
+        <v>-0.04572208281913476</v>
       </c>
       <c r="F16">
-        <v>-0.006945102505071537</v>
+        <v>-0.007972583891067489</v>
       </c>
       <c r="G16">
-        <v>-0.0057078624238779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005963084316429014</v>
+      </c>
+      <c r="H16">
+        <v>0.02047119864591385</v>
+      </c>
+      <c r="I16">
+        <v>-0.01392125577787701</v>
+      </c>
+      <c r="J16">
+        <v>0.002045671576185614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04576064215130704</v>
+        <v>0.04727739896388644</v>
       </c>
       <c r="C19">
-        <v>-0.02609693263359734</v>
+        <v>-0.03075363065195691</v>
       </c>
       <c r="D19">
-        <v>-0.01331283095438743</v>
+        <v>0.006485255172827212</v>
       </c>
       <c r="E19">
-        <v>-0.07941842542129979</v>
+        <v>-0.09327126506650027</v>
       </c>
       <c r="F19">
-        <v>-0.01066188878943483</v>
+        <v>-0.03242421418847793</v>
       </c>
       <c r="G19">
-        <v>0.05016565865544034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.008417148181195936</v>
+      </c>
+      <c r="H19">
+        <v>0.07602963968881822</v>
+      </c>
+      <c r="I19">
+        <v>0.06867101797859695</v>
+      </c>
+      <c r="J19">
+        <v>-0.0007177762764340887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03415592586323939</v>
+        <v>0.01829665230886758</v>
       </c>
       <c r="C20">
-        <v>-0.02908629260756768</v>
+        <v>-0.03074026302074304</v>
       </c>
       <c r="D20">
-        <v>-0.004779297555015125</v>
+        <v>0.01259194085373737</v>
       </c>
       <c r="E20">
-        <v>-0.07241246232018153</v>
+        <v>-0.07211820794259782</v>
       </c>
       <c r="F20">
-        <v>-0.02118807075453306</v>
+        <v>-0.03445988451807033</v>
       </c>
       <c r="G20">
-        <v>0.04825747285821901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01167712781027464</v>
+      </c>
+      <c r="H20">
+        <v>0.07775623404289658</v>
+      </c>
+      <c r="I20">
+        <v>0.01823966110496887</v>
+      </c>
+      <c r="J20">
+        <v>0.02417424090976992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03720938321701012</v>
+        <v>0.01849502214696604</v>
       </c>
       <c r="C21">
-        <v>-0.01029251090445712</v>
+        <v>-0.01993180226325712</v>
       </c>
       <c r="D21">
-        <v>-0.02057459547840655</v>
+        <v>-0.009872686683879073</v>
       </c>
       <c r="E21">
-        <v>-0.08979243129715914</v>
+        <v>-0.0826291692685364</v>
       </c>
       <c r="F21">
-        <v>0.02113677341974807</v>
+        <v>-0.02873498093389928</v>
       </c>
       <c r="G21">
-        <v>0.0356005244654416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01437942548297593</v>
+      </c>
+      <c r="H21">
+        <v>0.04865094948098425</v>
+      </c>
+      <c r="I21">
+        <v>0.01404537934028506</v>
+      </c>
+      <c r="J21">
+        <v>-0.02240470195320948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04739362675717371</v>
+        <v>0.04130947168802877</v>
       </c>
       <c r="C24">
-        <v>-0.007546850775524303</v>
+        <v>-0.0140062463129759</v>
       </c>
       <c r="D24">
-        <v>-0.009139692391763266</v>
+        <v>0.004928598855643621</v>
       </c>
       <c r="E24">
-        <v>-0.05447341016643868</v>
+        <v>-0.04959018268153023</v>
       </c>
       <c r="F24">
-        <v>-0.009791300923474239</v>
+        <v>-0.008209198455473556</v>
       </c>
       <c r="G24">
-        <v>-0.008987390808831375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01227352904525237</v>
+      </c>
+      <c r="H24">
+        <v>0.01675240482550142</v>
+      </c>
+      <c r="I24">
+        <v>-0.01022856833331247</v>
+      </c>
+      <c r="J24">
+        <v>0.00307503480470408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05139732758540067</v>
+        <v>0.04455968867290382</v>
       </c>
       <c r="C25">
-        <v>0.002741117803183159</v>
+        <v>-0.0144701060341773</v>
       </c>
       <c r="D25">
-        <v>-0.009461127915894959</v>
+        <v>0.003709965481590573</v>
       </c>
       <c r="E25">
-        <v>-0.04111961369862788</v>
+        <v>-0.04849724727364876</v>
       </c>
       <c r="F25">
-        <v>-0.007045444056274863</v>
+        <v>-0.01146517242823657</v>
       </c>
       <c r="G25">
-        <v>-0.01230509151790615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006251448762347391</v>
+      </c>
+      <c r="H25">
+        <v>0.0100169138617514</v>
+      </c>
+      <c r="I25">
+        <v>-0.0116255003043875</v>
+      </c>
+      <c r="J25">
+        <v>-0.007023204984400183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001832107871214078</v>
+        <v>0.008641213608822149</v>
       </c>
       <c r="C26">
-        <v>-0.01373930676340093</v>
+        <v>-0.01539705582007318</v>
       </c>
       <c r="D26">
-        <v>0.001521656507073395</v>
+        <v>-0.004275186526102668</v>
       </c>
       <c r="E26">
-        <v>-0.05597746424746364</v>
+        <v>-0.05904229680843436</v>
       </c>
       <c r="F26">
-        <v>0.004999302407265648</v>
+        <v>0.0004657954574118919</v>
       </c>
       <c r="G26">
-        <v>0.01618500097716169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003771127161786003</v>
+      </c>
+      <c r="H26">
+        <v>0.03830705808100339</v>
+      </c>
+      <c r="I26">
+        <v>-0.0008394187864129341</v>
+      </c>
+      <c r="J26">
+        <v>0.01538581220688497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.10854758247176</v>
+        <v>0.08928970237984771</v>
       </c>
       <c r="C27">
-        <v>-0.001159832002953443</v>
+        <v>-0.01494291459037764</v>
       </c>
       <c r="D27">
-        <v>0.01065728639750855</v>
+        <v>0.02911370887585708</v>
       </c>
       <c r="E27">
-        <v>-0.114066410053122</v>
+        <v>-0.0877981991779931</v>
       </c>
       <c r="F27">
-        <v>-0.01110629620662728</v>
+        <v>-0.04552947544471681</v>
       </c>
       <c r="G27">
-        <v>-0.01622449910433919</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.004355477296272895</v>
+      </c>
+      <c r="H27">
+        <v>0.01078018806724358</v>
+      </c>
+      <c r="I27">
+        <v>-0.002769386955469768</v>
+      </c>
+      <c r="J27">
+        <v>0.02045625833236921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02473095716178558</v>
+        <v>0.01086296704359862</v>
       </c>
       <c r="C28">
-        <v>0.2350536637205212</v>
+        <v>0.2291456420399164</v>
       </c>
       <c r="D28">
-        <v>-0.01403703907391449</v>
+        <v>-0.02058039544100344</v>
       </c>
       <c r="E28">
-        <v>-0.01014659852623529</v>
+        <v>-0.03485321359223519</v>
       </c>
       <c r="F28">
-        <v>-0.002683027807524697</v>
+        <v>-0.001507380538829243</v>
       </c>
       <c r="G28">
-        <v>-0.04368214612834685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01738562152825954</v>
+      </c>
+      <c r="H28">
+        <v>-0.03946990115469056</v>
+      </c>
+      <c r="I28">
+        <v>0.1430082214340649</v>
+      </c>
+      <c r="J28">
+        <v>0.09350785652962888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01905434941483264</v>
+        <v>0.02003409997034838</v>
       </c>
       <c r="C29">
-        <v>-0.01420066364033457</v>
+        <v>-0.01782605722814855</v>
       </c>
       <c r="D29">
-        <v>0.01629572784695161</v>
+        <v>0.01770984643786048</v>
       </c>
       <c r="E29">
-        <v>-0.03817341190282928</v>
+        <v>-0.03635701712778675</v>
       </c>
       <c r="F29">
-        <v>0.001644508551245408</v>
+        <v>-0.03115888388105656</v>
       </c>
       <c r="G29">
-        <v>0.04174089973068306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01732912710638502</v>
+      </c>
+      <c r="H29">
+        <v>0.06325241891058969</v>
+      </c>
+      <c r="I29">
+        <v>0.01059687704335163</v>
+      </c>
+      <c r="J29">
+        <v>0.01712393158786596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1048202794883857</v>
+        <v>0.102918648620336</v>
       </c>
       <c r="C30">
-        <v>0.003248782554344729</v>
+        <v>-0.02590033723530357</v>
       </c>
       <c r="D30">
-        <v>0.001477403910032411</v>
+        <v>0.03060061900884348</v>
       </c>
       <c r="E30">
-        <v>-0.1290155521610756</v>
+        <v>-0.1132746643479968</v>
       </c>
       <c r="F30">
-        <v>-0.01599399610087235</v>
+        <v>-0.01598335297019769</v>
       </c>
       <c r="G30">
-        <v>-0.08431467533456355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02786824730204448</v>
+      </c>
+      <c r="H30">
+        <v>0.008566331845000731</v>
+      </c>
+      <c r="I30">
+        <v>-0.02722552921661486</v>
+      </c>
+      <c r="J30">
+        <v>-0.01833721500122258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.0544294469086217</v>
+        <v>0.05707091898317983</v>
       </c>
       <c r="C31">
-        <v>-0.008767999174200488</v>
+        <v>-0.0150916361020821</v>
       </c>
       <c r="D31">
-        <v>0.01767511322969952</v>
+        <v>0.01483226961961456</v>
       </c>
       <c r="E31">
-        <v>-0.001258030543874733</v>
+        <v>-0.01926568253189353</v>
       </c>
       <c r="F31">
-        <v>0.008994194648545707</v>
+        <v>0.01804303292480919</v>
       </c>
       <c r="G31">
-        <v>0.01993637573212858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03377335241682417</v>
+      </c>
+      <c r="H31">
+        <v>0.04949667910013007</v>
+      </c>
+      <c r="I31">
+        <v>0.01340602604778198</v>
+      </c>
+      <c r="J31">
+        <v>0.0207390825120789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06604906563744357</v>
+        <v>0.04828118458471035</v>
       </c>
       <c r="C32">
-        <v>-0.0157945743366202</v>
+        <v>-0.04045691584191376</v>
       </c>
       <c r="D32">
-        <v>-0.002727993951628474</v>
+        <v>0.01823737209427338</v>
       </c>
       <c r="E32">
-        <v>-0.1125896844623483</v>
+        <v>-0.09990265990376154</v>
       </c>
       <c r="F32">
-        <v>-0.03926625156149984</v>
+        <v>-0.0412015868208824</v>
       </c>
       <c r="G32">
-        <v>0.01875246553054091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01970268118480944</v>
+      </c>
+      <c r="H32">
+        <v>0.06174982406587045</v>
+      </c>
+      <c r="I32">
+        <v>0.03790730760141049</v>
+      </c>
+      <c r="J32">
+        <v>-0.01788546294759972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06835997718061544</v>
+        <v>0.05917713588427609</v>
       </c>
       <c r="C33">
-        <v>-0.02075475331311845</v>
+        <v>-0.03752454523862669</v>
       </c>
       <c r="D33">
-        <v>0.002753828573094895</v>
+        <v>0.00364389818684942</v>
       </c>
       <c r="E33">
-        <v>-0.07959751569601675</v>
+        <v>-0.090722228538568</v>
       </c>
       <c r="F33">
-        <v>0.01608779095797263</v>
+        <v>-0.01273613341603405</v>
       </c>
       <c r="G33">
-        <v>0.01464914554990623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01124134290959491</v>
+      </c>
+      <c r="H33">
+        <v>0.05391140588232449</v>
+      </c>
+      <c r="I33">
+        <v>-0.008343744101944297</v>
+      </c>
+      <c r="J33">
+        <v>0.002976401321863612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04786894907027565</v>
+        <v>0.04255773340829175</v>
       </c>
       <c r="C34">
-        <v>-0.009033645459401074</v>
+        <v>-0.01981840573265473</v>
       </c>
       <c r="D34">
-        <v>-0.01034262979984331</v>
+        <v>0.008161210422298526</v>
       </c>
       <c r="E34">
-        <v>-0.02582476255533445</v>
+        <v>-0.03843097414691644</v>
       </c>
       <c r="F34">
-        <v>-0.008162916845269159</v>
+        <v>-0.008932480670833439</v>
       </c>
       <c r="G34">
-        <v>0.008898903790768471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003697212388405881</v>
+      </c>
+      <c r="H34">
+        <v>0.0237037396443986</v>
+      </c>
+      <c r="I34">
+        <v>-0.005782529746110354</v>
+      </c>
+      <c r="J34">
+        <v>-0.01167759819278401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01034905179628418</v>
+        <v>0.01282987181821073</v>
       </c>
       <c r="C36">
-        <v>0.01009057836497371</v>
+        <v>0.0003807811047668582</v>
       </c>
       <c r="D36">
-        <v>0.00119017100231598</v>
+        <v>0.005546699438913865</v>
       </c>
       <c r="E36">
-        <v>-0.02600462085027151</v>
+        <v>-0.02947756666378003</v>
       </c>
       <c r="F36">
-        <v>0.0006908082935592995</v>
+        <v>-0.01184994910990585</v>
       </c>
       <c r="G36">
-        <v>0.007716001481930278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0105584639397905</v>
+      </c>
+      <c r="H36">
+        <v>0.03725137129909051</v>
+      </c>
+      <c r="I36">
+        <v>0.01360972007413621</v>
+      </c>
+      <c r="J36">
+        <v>-0.00322710193696015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05318941049940523</v>
+        <v>0.03004712787156537</v>
       </c>
       <c r="C38">
-        <v>-0.001821742147329423</v>
+        <v>-0.008193514786455003</v>
       </c>
       <c r="D38">
-        <v>0.02241736670879927</v>
+        <v>0.006822443606719984</v>
       </c>
       <c r="E38">
-        <v>-0.03471076346870997</v>
+        <v>-0.04709267199164108</v>
       </c>
       <c r="F38">
-        <v>0.001530226671743348</v>
+        <v>-0.02039564795534927</v>
       </c>
       <c r="G38">
-        <v>0.02043443135798359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01630453800422565</v>
+      </c>
+      <c r="H38">
+        <v>0.0109355212069626</v>
+      </c>
+      <c r="I38">
+        <v>0.01025334154743173</v>
+      </c>
+      <c r="J38">
+        <v>-0.01182225659146888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07731047815752587</v>
+        <v>0.0632900286564147</v>
       </c>
       <c r="C39">
-        <v>-0.005362869327061638</v>
+        <v>-0.02688694564241011</v>
       </c>
       <c r="D39">
-        <v>-0.003118058083978607</v>
+        <v>0.01858589477524953</v>
       </c>
       <c r="E39">
-        <v>-0.04923456379918265</v>
+        <v>-0.06295412953445086</v>
       </c>
       <c r="F39">
-        <v>0.00638849383858208</v>
+        <v>-0.002841383768453467</v>
       </c>
       <c r="G39">
-        <v>-0.01467855864695033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.002521978019613681</v>
+      </c>
+      <c r="H39">
+        <v>0.02163893740327367</v>
+      </c>
+      <c r="I39">
+        <v>-0.01870736520017082</v>
+      </c>
+      <c r="J39">
+        <v>-0.01843041457561089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07022991902429596</v>
+        <v>0.05553485888405167</v>
       </c>
       <c r="C40">
-        <v>-0.02392857804887208</v>
+        <v>-0.03167623193830479</v>
       </c>
       <c r="D40">
-        <v>-0.01077625688507755</v>
+        <v>0.0207752856899612</v>
       </c>
       <c r="E40">
-        <v>-0.116042309992323</v>
+        <v>-0.113444434385946</v>
       </c>
       <c r="F40">
-        <v>0.006282798358208827</v>
+        <v>-0.00394646563988748</v>
       </c>
       <c r="G40">
-        <v>0.06726352886366609</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.00804338330824044</v>
+      </c>
+      <c r="H40">
+        <v>0.0801762520177563</v>
+      </c>
+      <c r="I40">
+        <v>0.02537260644770595</v>
+      </c>
+      <c r="J40">
+        <v>-0.002812629529758725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002391611403985448</v>
+        <v>0.0002116904802044745</v>
       </c>
       <c r="C41">
-        <v>-0.007472364839674555</v>
+        <v>-0.00918740861210306</v>
       </c>
       <c r="D41">
-        <v>0.01119459775308251</v>
+        <v>0.003266277126270714</v>
       </c>
       <c r="E41">
-        <v>-0.02378108265030994</v>
+        <v>-0.02047243359652723</v>
       </c>
       <c r="F41">
-        <v>0.02249760651761066</v>
+        <v>-0.008887189504303445</v>
       </c>
       <c r="G41">
-        <v>0.02772015589142961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02875445377971262</v>
+      </c>
+      <c r="H41">
+        <v>0.04218388267499642</v>
+      </c>
+      <c r="I41">
+        <v>0.018013151991277</v>
+      </c>
+      <c r="J41">
+        <v>0.02990435267568235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1573020613422261</v>
+        <v>0.244664128719795</v>
       </c>
       <c r="C42">
-        <v>-0.1441181406466826</v>
+        <v>-0.1336136724679828</v>
       </c>
       <c r="D42">
-        <v>-0.9292498299703222</v>
+        <v>-0.9182957178019652</v>
       </c>
       <c r="E42">
-        <v>0.09003587785891562</v>
+        <v>0.1100371983430872</v>
       </c>
       <c r="F42">
-        <v>0.04190987818138414</v>
+        <v>0.1874456669157877</v>
       </c>
       <c r="G42">
-        <v>-0.1480815350755587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007765825783601897</v>
+      </c>
+      <c r="H42">
+        <v>-0.01068367421885351</v>
+      </c>
+      <c r="I42">
+        <v>0.03285215382799832</v>
+      </c>
+      <c r="J42">
+        <v>0.05101161808166476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008391303411461132</v>
+        <v>0.001514340931970883</v>
       </c>
       <c r="C43">
-        <v>-0.008842216680901127</v>
+        <v>-0.01247699574148204</v>
       </c>
       <c r="D43">
-        <v>0.01528940556852582</v>
+        <v>0.005303567714894704</v>
       </c>
       <c r="E43">
-        <v>-0.03755481924555459</v>
+        <v>-0.03195132454856638</v>
       </c>
       <c r="F43">
-        <v>-0.008653416815013892</v>
+        <v>-0.006540281890483307</v>
       </c>
       <c r="G43">
-        <v>0.02315236266719841</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.007009694066782494</v>
+      </c>
+      <c r="H43">
+        <v>0.03723532715188414</v>
+      </c>
+      <c r="I43">
+        <v>0.008549771154661493</v>
+      </c>
+      <c r="J43">
+        <v>0.0229088306823036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.0448226833432992</v>
+        <v>0.02914644548493135</v>
       </c>
       <c r="C44">
-        <v>-0.025327263132465</v>
+        <v>-0.03112815738668485</v>
       </c>
       <c r="D44">
-        <v>-0.0007006170065862685</v>
+        <v>0.0005303651795795888</v>
       </c>
       <c r="E44">
-        <v>-0.117930578459716</v>
+        <v>-0.1231389422764017</v>
       </c>
       <c r="F44">
-        <v>0.03960246778042632</v>
+        <v>-0.03267977297275306</v>
       </c>
       <c r="G44">
-        <v>0.1020310575832898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02666971519539921</v>
+      </c>
+      <c r="H44">
+        <v>0.1116610948251229</v>
+      </c>
+      <c r="I44">
+        <v>0.03975332163659095</v>
+      </c>
+      <c r="J44">
+        <v>0.01042267517517869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02112868699648392</v>
+        <v>0.02138960041102404</v>
       </c>
       <c r="C46">
-        <v>-0.01010906547392049</v>
+        <v>-0.02237045025041381</v>
       </c>
       <c r="D46">
-        <v>0.02261290605049282</v>
+        <v>0.0164828216404208</v>
       </c>
       <c r="E46">
-        <v>-0.0287393288485951</v>
+        <v>-0.04837160950031779</v>
       </c>
       <c r="F46">
-        <v>0.01890388461869983</v>
+        <v>-0.0144747903638183</v>
       </c>
       <c r="G46">
-        <v>0.03955199073023875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01756870967101076</v>
+      </c>
+      <c r="H46">
+        <v>0.0647310440304321</v>
+      </c>
+      <c r="I46">
+        <v>0.007194950854784303</v>
+      </c>
+      <c r="J46">
+        <v>0.03687141559483813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.07834848732383583</v>
+        <v>0.08708504400098785</v>
       </c>
       <c r="C47">
-        <v>-0.002576210252857537</v>
+        <v>-0.01200980644333045</v>
       </c>
       <c r="D47">
-        <v>0.01943534154922822</v>
+        <v>0.02109212079342631</v>
       </c>
       <c r="E47">
-        <v>0.002257848518756218</v>
+        <v>-0.005687084690354389</v>
       </c>
       <c r="F47">
-        <v>0.00507860602126907</v>
+        <v>0.002873092651907375</v>
       </c>
       <c r="G47">
-        <v>0.04052435263429755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02905072575956561</v>
+      </c>
+      <c r="H47">
+        <v>0.0715624087758135</v>
+      </c>
+      <c r="I47">
+        <v>0.01625482604011178</v>
+      </c>
+      <c r="J47">
+        <v>0.02793013700845938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01257221833400456</v>
+        <v>0.01368085214365575</v>
       </c>
       <c r="C48">
-        <v>-0.01411749877624638</v>
+        <v>-0.01704107400152093</v>
       </c>
       <c r="D48">
-        <v>0.008300047891722249</v>
+        <v>0.004595155503543218</v>
       </c>
       <c r="E48">
-        <v>-0.03964425836245305</v>
+        <v>-0.04112108520024792</v>
       </c>
       <c r="F48">
-        <v>0.005081378313062423</v>
+        <v>-0.01302855430516153</v>
       </c>
       <c r="G48">
-        <v>0.00662191360448275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002996597885212377</v>
+      </c>
+      <c r="H48">
+        <v>0.02676387644452611</v>
+      </c>
+      <c r="I48">
+        <v>0.01197762118693608</v>
+      </c>
+      <c r="J48">
+        <v>0.01611066010212125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07613398162795131</v>
+        <v>0.08003327434046704</v>
       </c>
       <c r="C50">
-        <v>-0.02928423639098115</v>
+        <v>-0.03481993807903336</v>
       </c>
       <c r="D50">
-        <v>0.01459306897729546</v>
+        <v>0.01715000048457677</v>
       </c>
       <c r="E50">
-        <v>0.01154208061819836</v>
+        <v>-0.01144801021074461</v>
       </c>
       <c r="F50">
-        <v>0.01385252766740563</v>
+        <v>0.004722562185322392</v>
       </c>
       <c r="G50">
-        <v>0.01659158539246794</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007619383768167978</v>
+      </c>
+      <c r="H50">
+        <v>0.05104954253440432</v>
+      </c>
+      <c r="I50">
+        <v>0.01960071915596315</v>
+      </c>
+      <c r="J50">
+        <v>-0.0009342874359192713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06419379698943485</v>
+        <v>0.04715459328346663</v>
       </c>
       <c r="C51">
-        <v>0.03339085396117304</v>
+        <v>0.01183122478587359</v>
       </c>
       <c r="D51">
-        <v>0.009133930972531616</v>
+        <v>0.007504642957357646</v>
       </c>
       <c r="E51">
-        <v>-0.0805987831367614</v>
+        <v>-0.1045402375301384</v>
       </c>
       <c r="F51">
-        <v>0.04604866669961703</v>
+        <v>-0.006735834138348757</v>
       </c>
       <c r="G51">
-        <v>0.01889331560891862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04636375714053045</v>
+      </c>
+      <c r="H51">
+        <v>0.05257848938323895</v>
+      </c>
+      <c r="I51">
+        <v>0.02482669050624801</v>
+      </c>
+      <c r="J51">
+        <v>0.07143673104785529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1427068620580155</v>
+        <v>0.1283960378089286</v>
       </c>
       <c r="C53">
-        <v>-0.005717834213946085</v>
+        <v>-0.03248869529849582</v>
       </c>
       <c r="D53">
-        <v>0.04283806714050255</v>
+        <v>0.04561714356880224</v>
       </c>
       <c r="E53">
-        <v>0.001636868607772216</v>
+        <v>0.01437873966801181</v>
       </c>
       <c r="F53">
-        <v>0.01158173498859469</v>
+        <v>0.007841333320616057</v>
       </c>
       <c r="G53">
-        <v>0.02992531003834686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03117418522810884</v>
+      </c>
+      <c r="H53">
+        <v>0.01642277946605189</v>
+      </c>
+      <c r="I53">
+        <v>-0.01247510199883632</v>
+      </c>
+      <c r="J53">
+        <v>0.08837437836600831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02009237055216617</v>
+        <v>0.0217989144643778</v>
       </c>
       <c r="C54">
-        <v>0.01078383085791801</v>
+        <v>-0.0008174305929971687</v>
       </c>
       <c r="D54">
-        <v>0.0258112416500217</v>
+        <v>0.02440367614049583</v>
       </c>
       <c r="E54">
-        <v>-0.04216945657306546</v>
+        <v>-0.042612119643655</v>
       </c>
       <c r="F54">
-        <v>0.03051986710658142</v>
+        <v>-0.02385469521432938</v>
       </c>
       <c r="G54">
-        <v>0.04821594460888201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03095655591658131</v>
+      </c>
+      <c r="H54">
+        <v>0.07052211153379685</v>
+      </c>
+      <c r="I54">
+        <v>0.0397211058202938</v>
+      </c>
+      <c r="J54">
+        <v>0.02986444543021553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09542387126400391</v>
+        <v>0.1020231319344235</v>
       </c>
       <c r="C55">
-        <v>0.003943617069676606</v>
+        <v>-0.01577767257030004</v>
       </c>
       <c r="D55">
-        <v>0.03423983297850085</v>
+        <v>0.02988015521966592</v>
       </c>
       <c r="E55">
-        <v>-0.01535776591077767</v>
+        <v>0.01695160737541154</v>
       </c>
       <c r="F55">
-        <v>-0.02016467235193505</v>
+        <v>-0.0317841796859631</v>
       </c>
       <c r="G55">
-        <v>0.02179137796509688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.003722514569354071</v>
+      </c>
+      <c r="H55">
+        <v>0.03449093326543976</v>
+      </c>
+      <c r="I55">
+        <v>-0.02117729801124814</v>
+      </c>
+      <c r="J55">
+        <v>0.07144484202096335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1760385871831904</v>
+        <v>0.1689518282105252</v>
       </c>
       <c r="C56">
-        <v>0.02044340301584142</v>
+        <v>-0.01263890467358448</v>
       </c>
       <c r="D56">
-        <v>0.08155490460821825</v>
+        <v>0.08891159921116638</v>
       </c>
       <c r="E56">
-        <v>0.05080173372317213</v>
+        <v>0.07025702565121331</v>
       </c>
       <c r="F56">
-        <v>-0.04251873327116943</v>
+        <v>-0.001927551951170996</v>
       </c>
       <c r="G56">
-        <v>0.01478202874793958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01305411760024591</v>
+      </c>
+      <c r="H56">
+        <v>-0.03058425679813252</v>
+      </c>
+      <c r="I56">
+        <v>-0.05656403886942783</v>
+      </c>
+      <c r="J56">
+        <v>0.07676541309624527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09426881867572065</v>
+        <v>0.07422511682745157</v>
       </c>
       <c r="C57">
-        <v>-0.01563227238978413</v>
+        <v>-0.02006239795800965</v>
       </c>
       <c r="D57">
-        <v>0.01731474511678359</v>
+        <v>0.01009353959990798</v>
       </c>
       <c r="E57">
-        <v>-0.07352895061481304</v>
+        <v>-0.08122845254521199</v>
       </c>
       <c r="F57">
-        <v>-0.009088287732131732</v>
+        <v>-0.01250503074445795</v>
       </c>
       <c r="G57">
-        <v>0.03677384636293173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005607071442116121</v>
+      </c>
+      <c r="H57">
+        <v>0.0493122712376774</v>
+      </c>
+      <c r="I57">
+        <v>-0.01524845472844365</v>
+      </c>
+      <c r="J57">
+        <v>0.01028243933947049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.172187579958004</v>
+        <v>0.1933475876157461</v>
       </c>
       <c r="C58">
-        <v>0.007607992247232906</v>
+        <v>-0.03431645525507016</v>
       </c>
       <c r="D58">
-        <v>-0.05573552328540268</v>
+        <v>-0.003735635589088433</v>
       </c>
       <c r="E58">
-        <v>-0.06968421358125255</v>
+        <v>-0.1513525486012272</v>
       </c>
       <c r="F58">
-        <v>-0.07642864619579018</v>
+        <v>0.001355432949974516</v>
       </c>
       <c r="G58">
-        <v>0.2031068263622246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1564149557889632</v>
+      </c>
+      <c r="H58">
+        <v>0.2982991657201267</v>
+      </c>
+      <c r="I58">
+        <v>0.1544748417928916</v>
+      </c>
+      <c r="J58">
+        <v>-0.1820723305785869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01490397165707815</v>
+        <v>0.0169723223292192</v>
       </c>
       <c r="C59">
-        <v>0.2039018712059764</v>
+        <v>0.2005718324791962</v>
       </c>
       <c r="D59">
-        <v>0.024209451845905</v>
+        <v>0.01590372862669044</v>
       </c>
       <c r="E59">
-        <v>-0.02862642030671309</v>
+        <v>-0.04948482933015144</v>
       </c>
       <c r="F59">
-        <v>-0.008494267244828768</v>
+        <v>0.01096607967582829</v>
       </c>
       <c r="G59">
-        <v>-0.04585877272239212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001329212697582084</v>
+      </c>
+      <c r="H59">
+        <v>-0.03002699116238237</v>
+      </c>
+      <c r="I59">
+        <v>0.07857912410391051</v>
+      </c>
+      <c r="J59">
+        <v>0.03879294367204373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1754634265811331</v>
+        <v>0.17686727069293</v>
       </c>
       <c r="C60">
-        <v>0.131925379291561</v>
+        <v>0.07269852092289483</v>
       </c>
       <c r="D60">
-        <v>0.03136034602865306</v>
+        <v>0.02390542081522669</v>
       </c>
       <c r="E60">
-        <v>-0.1804373270683721</v>
+        <v>-0.2036181439991691</v>
       </c>
       <c r="F60">
-        <v>-0.001730404583809271</v>
+        <v>0.03627095820794492</v>
       </c>
       <c r="G60">
-        <v>-0.1595575729865031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06569923876359254</v>
+      </c>
+      <c r="H60">
+        <v>-0.2292739781985336</v>
+      </c>
+      <c r="I60">
+        <v>-0.1053609092941373</v>
+      </c>
+      <c r="J60">
+        <v>-0.04276550039525737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05210186977256464</v>
+        <v>0.03957616260620251</v>
       </c>
       <c r="C61">
-        <v>-0.0002864315526738517</v>
+        <v>-0.01478173632591616</v>
       </c>
       <c r="D61">
-        <v>-0.007333965159001389</v>
+        <v>0.002159403296839194</v>
       </c>
       <c r="E61">
-        <v>-0.04059160923773322</v>
+        <v>-0.04662593890433786</v>
       </c>
       <c r="F61">
-        <v>0.002222320661467451</v>
+        <v>-0.003518935081153802</v>
       </c>
       <c r="G61">
-        <v>-0.03576255339992122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.00134125807404585</v>
+      </c>
+      <c r="H61">
+        <v>0.004319337933234098</v>
+      </c>
+      <c r="I61">
+        <v>-0.02278086086897846</v>
+      </c>
+      <c r="J61">
+        <v>-0.02917268403568523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.0367755845284982</v>
+        <v>0.02977575748587142</v>
       </c>
       <c r="C63">
-        <v>0.01109678806744177</v>
+        <v>-0.009236970426594058</v>
       </c>
       <c r="D63">
-        <v>0.007769270404508589</v>
+        <v>0.008065600801224985</v>
       </c>
       <c r="E63">
-        <v>-0.04192724199589962</v>
+        <v>-0.03730119772073331</v>
       </c>
       <c r="F63">
-        <v>-0.0007367609219662724</v>
+        <v>-0.01230249637629259</v>
       </c>
       <c r="G63">
-        <v>0.01720170774124206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004012280555979274</v>
+      </c>
+      <c r="H63">
+        <v>0.04663676289618823</v>
+      </c>
+      <c r="I63">
+        <v>0.01750057423711977</v>
+      </c>
+      <c r="J63">
+        <v>0.04956276974869857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.0945356747613387</v>
+        <v>0.06815265585178096</v>
       </c>
       <c r="C64">
-        <v>-0.002258873431324211</v>
+        <v>-0.02738641217733999</v>
       </c>
       <c r="D64">
-        <v>0.06047265093903144</v>
+        <v>0.03692653109084613</v>
       </c>
       <c r="E64">
-        <v>-0.1060908809119112</v>
+        <v>-0.06687807823590101</v>
       </c>
       <c r="F64">
-        <v>0.07738061691988193</v>
+        <v>-0.06324600146881688</v>
       </c>
       <c r="G64">
-        <v>-0.03544836807666841</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06494608277412839</v>
+      </c>
+      <c r="H64">
+        <v>-0.008592687398840683</v>
+      </c>
+      <c r="I64">
+        <v>-0.025077723008034</v>
+      </c>
+      <c r="J64">
+        <v>0.08044622021448723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01074394154872312</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.005416563066784318</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.002050774116252307</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004688586836441428</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001558202603341255</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0133423452895395</v>
+      </c>
+      <c r="H65">
+        <v>-0.0001540742770075791</v>
+      </c>
+      <c r="I65">
+        <v>-0.0003703532223127788</v>
+      </c>
+      <c r="J65">
+        <v>0.001659897182420838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1027272611159562</v>
+        <v>0.07506620442443648</v>
       </c>
       <c r="C66">
-        <v>-0.007523273696002332</v>
+        <v>-0.03614958534713083</v>
       </c>
       <c r="D66">
-        <v>0.03299642595161068</v>
+        <v>0.04127225703039041</v>
       </c>
       <c r="E66">
-        <v>-0.09302886118473915</v>
+        <v>-0.08906835009297423</v>
       </c>
       <c r="F66">
-        <v>0.009562134013613608</v>
+        <v>-0.004926704322064233</v>
       </c>
       <c r="G66">
-        <v>-0.00849749007942239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.001270761965285801</v>
+      </c>
+      <c r="H66">
+        <v>0.01912026949006635</v>
+      </c>
+      <c r="I66">
+        <v>-0.04282757832995855</v>
+      </c>
+      <c r="J66">
+        <v>-0.01282833735840602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.05897105814940478</v>
+        <v>0.03971018149795563</v>
       </c>
       <c r="C67">
-        <v>0.01978397642776538</v>
+        <v>0.009333973344381158</v>
       </c>
       <c r="D67">
-        <v>0.01086101072600653</v>
+        <v>0.004541903027173208</v>
       </c>
       <c r="E67">
-        <v>-0.02860668055353302</v>
+        <v>-0.04157606067410935</v>
       </c>
       <c r="F67">
-        <v>0.0004087768003488048</v>
+        <v>-0.008380880010804434</v>
       </c>
       <c r="G67">
-        <v>0.02270175177924716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02267657050324894</v>
+      </c>
+      <c r="H67">
+        <v>-0.001467574710867821</v>
+      </c>
+      <c r="I67">
+        <v>-0.02809073921204241</v>
+      </c>
+      <c r="J67">
+        <v>-0.02154113520907638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01310104162286516</v>
+        <v>0.02491802462435177</v>
       </c>
       <c r="C68">
-        <v>0.245496630727126</v>
+        <v>0.2377505429716963</v>
       </c>
       <c r="D68">
-        <v>0.004261554639307307</v>
+        <v>0.005849022450100886</v>
       </c>
       <c r="E68">
-        <v>-0.01672168658938302</v>
+        <v>-0.0346441605316377</v>
       </c>
       <c r="F68">
-        <v>-0.01997425979860604</v>
+        <v>-0.002038849211837736</v>
       </c>
       <c r="G68">
-        <v>-0.03412718959469825</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01128794852761599</v>
+      </c>
+      <c r="H68">
+        <v>-0.03709873308028629</v>
+      </c>
+      <c r="I68">
+        <v>0.1552640134756495</v>
+      </c>
+      <c r="J68">
+        <v>0.08823540636571069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06401004646390338</v>
+        <v>0.06837246767379936</v>
       </c>
       <c r="C69">
-        <v>-0.004925494437429817</v>
+        <v>-0.008850753156601259</v>
       </c>
       <c r="D69">
-        <v>0.02837560475234283</v>
+        <v>0.02701854703372444</v>
       </c>
       <c r="E69">
-        <v>-0.0007214329483756423</v>
+        <v>-0.01199385842822385</v>
       </c>
       <c r="F69">
-        <v>-0.003717913476879124</v>
+        <v>0.006186757089201699</v>
       </c>
       <c r="G69">
-        <v>0.008568824981911281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01936462000914349</v>
+      </c>
+      <c r="H69">
+        <v>0.05242924945511779</v>
+      </c>
+      <c r="I69">
+        <v>-0.0004068753002406917</v>
+      </c>
+      <c r="J69">
+        <v>0.009659053614906724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006808422524036591</v>
+        <v>0.03146640097582708</v>
       </c>
       <c r="C71">
-        <v>0.2345460407107993</v>
+        <v>0.2376458103694097</v>
       </c>
       <c r="D71">
-        <v>-0.003301639814094091</v>
+        <v>-0.01492164883187727</v>
       </c>
       <c r="E71">
-        <v>-0.03383335485295449</v>
+        <v>-0.05258785871742903</v>
       </c>
       <c r="F71">
-        <v>-0.02312726379996949</v>
+        <v>0.02646097394610927</v>
       </c>
       <c r="G71">
-        <v>-0.1363636960118201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.003701445227233208</v>
+      </c>
+      <c r="H71">
+        <v>-0.0537268250403547</v>
+      </c>
+      <c r="I71">
+        <v>0.1597864624969114</v>
+      </c>
+      <c r="J71">
+        <v>0.02877281112516615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1008429347709938</v>
+        <v>0.1115804072663362</v>
       </c>
       <c r="C72">
-        <v>0.02583154138449818</v>
+        <v>0.01113990259054275</v>
       </c>
       <c r="D72">
-        <v>0.0409139821273747</v>
+        <v>0.06105303650817935</v>
       </c>
       <c r="E72">
-        <v>-0.06601184289978358</v>
+        <v>-0.08444064267777439</v>
       </c>
       <c r="F72">
-        <v>-0.007594254511881875</v>
+        <v>-0.01513823261494044</v>
       </c>
       <c r="G72">
-        <v>0.0218967395675746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03317198899838882</v>
+      </c>
+      <c r="H72">
+        <v>-0.000450505603933556</v>
+      </c>
+      <c r="I72">
+        <v>0.009680790247075034</v>
+      </c>
+      <c r="J72">
+        <v>-0.01733047506538732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2689060068488647</v>
+        <v>0.2693230677107089</v>
       </c>
       <c r="C73">
-        <v>0.2282283297646359</v>
+        <v>0.1517243405404471</v>
       </c>
       <c r="D73">
-        <v>-0.004053010019061326</v>
+        <v>-0.003159135477354841</v>
       </c>
       <c r="E73">
-        <v>-0.2674944124116245</v>
+        <v>-0.3158670300952329</v>
       </c>
       <c r="F73">
-        <v>-0.05493241229259313</v>
+        <v>0.06672689711033286</v>
       </c>
       <c r="G73">
-        <v>-0.3939044107279335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1502984547542623</v>
+      </c>
+      <c r="H73">
+        <v>-0.4214609117527159</v>
+      </c>
+      <c r="I73">
+        <v>-0.2350562325447463</v>
+      </c>
+      <c r="J73">
+        <v>-0.3228856421443726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1524916620201823</v>
+        <v>0.1529888203459865</v>
       </c>
       <c r="C74">
-        <v>0.01471236561516482</v>
+        <v>-0.006077788742904094</v>
       </c>
       <c r="D74">
-        <v>0.05236933280027793</v>
+        <v>0.04640626098868415</v>
       </c>
       <c r="E74">
-        <v>-0.01076353747983341</v>
+        <v>0.02449267085461466</v>
       </c>
       <c r="F74">
-        <v>-0.04671364023762046</v>
+        <v>-0.0007438414777650932</v>
       </c>
       <c r="G74">
-        <v>-0.005408911935628196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01772245075917349</v>
+      </c>
+      <c r="H74">
+        <v>-0.02010915073803825</v>
+      </c>
+      <c r="I74">
+        <v>-0.05656927646918952</v>
+      </c>
+      <c r="J74">
+        <v>0.08447280016814071</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.235092949804394</v>
+        <v>0.2467959303630323</v>
       </c>
       <c r="C75">
-        <v>0.01864026951285627</v>
+        <v>-0.014682531134645</v>
       </c>
       <c r="D75">
-        <v>0.06272237297582392</v>
+        <v>0.1022063970893374</v>
       </c>
       <c r="E75">
-        <v>0.09644874051155593</v>
+        <v>0.1152621332107215</v>
       </c>
       <c r="F75">
-        <v>-0.01565802878964331</v>
+        <v>0.02475607542177439</v>
       </c>
       <c r="G75">
-        <v>0.04809822206611074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02886261055662385</v>
+      </c>
+      <c r="H75">
+        <v>-0.01337423178878383</v>
+      </c>
+      <c r="I75">
+        <v>-0.05581116675851091</v>
+      </c>
+      <c r="J75">
+        <v>0.1769539687421064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2336519985020167</v>
+        <v>0.260629583129058</v>
       </c>
       <c r="C76">
-        <v>0.01543647293000366</v>
+        <v>-0.00424886285829299</v>
       </c>
       <c r="D76">
-        <v>0.100741847194981</v>
+        <v>0.1222141574014092</v>
       </c>
       <c r="E76">
-        <v>0.06755209047608544</v>
+        <v>0.1305134513517368</v>
       </c>
       <c r="F76">
-        <v>-0.02897227194017281</v>
+        <v>-0.007946103176143204</v>
       </c>
       <c r="G76">
-        <v>0.01857001150228143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01418227959658186</v>
+      </c>
+      <c r="H76">
+        <v>-0.006344750078301178</v>
+      </c>
+      <c r="I76">
+        <v>-0.1143465897560901</v>
+      </c>
+      <c r="J76">
+        <v>0.1588141301142895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1279028684356391</v>
+        <v>0.1313156706296391</v>
       </c>
       <c r="C77">
-        <v>0.005864698665067521</v>
+        <v>-0.02910921246910213</v>
       </c>
       <c r="D77">
-        <v>-0.05402187917924643</v>
+        <v>-0.04840497469448506</v>
       </c>
       <c r="E77">
-        <v>-0.1628758334360859</v>
+        <v>-0.1693560209326724</v>
       </c>
       <c r="F77">
-        <v>-0.02229588783264396</v>
+        <v>-0.05865901076665469</v>
       </c>
       <c r="G77">
-        <v>0.129722511500503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.020681564778555</v>
+      </c>
+      <c r="H77">
+        <v>0.1495319128312601</v>
+      </c>
+      <c r="I77">
+        <v>0.1307183144810861</v>
+      </c>
+      <c r="J77">
+        <v>0.1038635953299889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09302399584588109</v>
+        <v>0.08807368846158538</v>
       </c>
       <c r="C78">
-        <v>-0.02291743082792475</v>
+        <v>-0.04705616778344388</v>
       </c>
       <c r="D78">
-        <v>-0.02809680932006743</v>
+        <v>-0.001983978970372505</v>
       </c>
       <c r="E78">
-        <v>-0.08598283977744102</v>
+        <v>-0.08757483349731519</v>
       </c>
       <c r="F78">
-        <v>-0.003323681102272664</v>
+        <v>-0.04004466155606031</v>
       </c>
       <c r="G78">
-        <v>-0.02750598549651546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01260220649948871</v>
+      </c>
+      <c r="H78">
+        <v>0.01897063539356263</v>
+      </c>
+      <c r="I78">
+        <v>0.02803853663614363</v>
+      </c>
+      <c r="J78">
+        <v>0.03169590529283259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0798300793955283</v>
+        <v>0.08889843539475449</v>
       </c>
       <c r="C80">
-        <v>0.01152307228362282</v>
+        <v>0.06365759357823146</v>
       </c>
       <c r="D80">
-        <v>-0.02481834898089334</v>
+        <v>-0.1669650283403227</v>
       </c>
       <c r="E80">
-        <v>0.02492412125877205</v>
+        <v>0.1745811396492948</v>
       </c>
       <c r="F80">
-        <v>-0.002551558932452979</v>
+        <v>-0.9379927404653376</v>
       </c>
       <c r="G80">
-        <v>0.3202967076948086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01632167908533014</v>
+      </c>
+      <c r="H80">
+        <v>-0.1394131794900121</v>
+      </c>
+      <c r="I80">
+        <v>-0.008416298965882257</v>
+      </c>
+      <c r="J80">
+        <v>-0.108798936820414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.164382039049414</v>
+        <v>0.1741731353095397</v>
       </c>
       <c r="C81">
-        <v>0.01295812807238828</v>
+        <v>-0.004310213055968971</v>
       </c>
       <c r="D81">
-        <v>0.06222832029388407</v>
+        <v>0.08719736372625966</v>
       </c>
       <c r="E81">
-        <v>0.1106952394104431</v>
+        <v>0.1350355939817169</v>
       </c>
       <c r="F81">
-        <v>-0.04607183967984148</v>
+        <v>0.02692242517338806</v>
       </c>
       <c r="G81">
-        <v>0.03271957913676291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01068471196829715</v>
+      </c>
+      <c r="H81">
+        <v>-0.008595046003652894</v>
+      </c>
+      <c r="I81">
+        <v>-0.058357485142263</v>
+      </c>
+      <c r="J81">
+        <v>0.1245617737334302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07961751718758769</v>
+        <v>0.06490377572452219</v>
       </c>
       <c r="C83">
-        <v>-0.01533999150341999</v>
+        <v>-0.03209228960468793</v>
       </c>
       <c r="D83">
-        <v>-0.08794602244864982</v>
+        <v>-0.04551446421945536</v>
       </c>
       <c r="E83">
-        <v>-0.07219318863323372</v>
+        <v>-0.07239054574269964</v>
       </c>
       <c r="F83">
-        <v>0.06349683996970966</v>
+        <v>0.006120063008607316</v>
       </c>
       <c r="G83">
-        <v>0.04422218068731476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04706563904033244</v>
+      </c>
+      <c r="H83">
+        <v>0.04418214923328383</v>
+      </c>
+      <c r="I83">
+        <v>-0.01337349111131609</v>
+      </c>
+      <c r="J83">
+        <v>0.08960275942921082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2461262366647208</v>
+        <v>0.2579213729644937</v>
       </c>
       <c r="C85">
-        <v>-0.04345212492458473</v>
+        <v>-0.05005662365349237</v>
       </c>
       <c r="D85">
-        <v>0.05319387377814864</v>
+        <v>0.08510300239249997</v>
       </c>
       <c r="E85">
-        <v>0.1038500602298649</v>
+        <v>0.1393205326077266</v>
       </c>
       <c r="F85">
-        <v>-0.006671402365911348</v>
+        <v>-0.008861604739225242</v>
       </c>
       <c r="G85">
-        <v>0.07301839058595595</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02215819083254696</v>
+      </c>
+      <c r="H85">
+        <v>0.02436754572131837</v>
+      </c>
+      <c r="I85">
+        <v>-0.08268286040063678</v>
+      </c>
+      <c r="J85">
+        <v>0.2017296372055321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04693692471131228</v>
+        <v>0.03085847868416871</v>
       </c>
       <c r="C86">
-        <v>-0.02409908483072372</v>
+        <v>-0.03873696833967544</v>
       </c>
       <c r="D86">
-        <v>0.007370723383005027</v>
+        <v>0.006366372855072727</v>
       </c>
       <c r="E86">
-        <v>-0.05296482840026993</v>
+        <v>-0.05980100214754789</v>
       </c>
       <c r="F86">
-        <v>-0.008041119782227405</v>
+        <v>-0.03508814293417176</v>
       </c>
       <c r="G86">
-        <v>0.02020308724305287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.00775229566722926</v>
+      </c>
+      <c r="H86">
+        <v>0.03786912274034827</v>
+      </c>
+      <c r="I86">
+        <v>0.07580083640834867</v>
+      </c>
+      <c r="J86">
+        <v>-0.0008193257495560683</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03250730547021425</v>
+        <v>0.03955597268482793</v>
       </c>
       <c r="C87">
-        <v>0.05180090709433811</v>
+        <v>0.02594562698689324</v>
       </c>
       <c r="D87">
-        <v>0.01121712675194459</v>
+        <v>0.00145239755689941</v>
       </c>
       <c r="E87">
-        <v>-0.0544927882240834</v>
+        <v>-0.0856902786763236</v>
       </c>
       <c r="F87">
-        <v>0.01288619553897028</v>
+        <v>-0.01951350586679926</v>
       </c>
       <c r="G87">
-        <v>-0.1619559598205904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.005499581184200865</v>
+      </c>
+      <c r="H87">
+        <v>-0.01462564721249776</v>
+      </c>
+      <c r="I87">
+        <v>0.0410820516838037</v>
+      </c>
+      <c r="J87">
+        <v>-0.1002336917613951</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03371363231621471</v>
+        <v>0.02053035054440709</v>
       </c>
       <c r="C88">
-        <v>-0.02096987552876283</v>
+        <v>-0.0169081379262807</v>
       </c>
       <c r="D88">
-        <v>0.005768849427542337</v>
+        <v>0.01240400251009604</v>
       </c>
       <c r="E88">
-        <v>-0.009174482544988897</v>
+        <v>-0.004214417638445409</v>
       </c>
       <c r="F88">
-        <v>-0.00534205824612675</v>
+        <v>-0.02178949947335291</v>
       </c>
       <c r="G88">
-        <v>0.06252338542635337</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02649204717468278</v>
+      </c>
+      <c r="H88">
+        <v>0.04710740785422289</v>
+      </c>
+      <c r="I88">
+        <v>-0.01065191725702734</v>
+      </c>
+      <c r="J88">
+        <v>-0.02028299859227524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02931081581032763</v>
+        <v>0.03780966287862912</v>
       </c>
       <c r="C89">
-        <v>0.4360999101700653</v>
+        <v>0.4025655430853897</v>
       </c>
       <c r="D89">
-        <v>-0.07957551022997274</v>
+        <v>-0.04425274094433652</v>
       </c>
       <c r="E89">
-        <v>0.04254133645797051</v>
+        <v>-0.03669661807381142</v>
       </c>
       <c r="F89">
-        <v>0.03614588834393965</v>
+        <v>0.03967214496688925</v>
       </c>
       <c r="G89">
-        <v>0.03054377999033684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07589905880919655</v>
+      </c>
+      <c r="H89">
+        <v>0.009176671924385673</v>
+      </c>
+      <c r="I89">
+        <v>0.2383255668467687</v>
+      </c>
+      <c r="J89">
+        <v>0.1635920099588923</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03019004003483011</v>
+        <v>0.0198505031402633</v>
       </c>
       <c r="C90">
-        <v>0.310039964126525</v>
+        <v>0.3327850978664207</v>
       </c>
       <c r="D90">
-        <v>-0.01068880667586805</v>
+        <v>-0.02237442763033223</v>
       </c>
       <c r="E90">
-        <v>-0.01375578407741385</v>
+        <v>-0.02258252987026172</v>
       </c>
       <c r="F90">
-        <v>-0.01587054232669265</v>
+        <v>-0.004175795437762945</v>
       </c>
       <c r="G90">
-        <v>-0.07170242334069282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01116609741678538</v>
+      </c>
+      <c r="H90">
+        <v>-0.04598496639258026</v>
+      </c>
+      <c r="I90">
+        <v>0.1683680929945813</v>
+      </c>
+      <c r="J90">
+        <v>0.120092550769062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3124833145159148</v>
+        <v>0.3233680298271073</v>
       </c>
       <c r="C91">
-        <v>-0.01298695458135807</v>
+        <v>-0.03033975832801973</v>
       </c>
       <c r="D91">
-        <v>0.07215424196165669</v>
+        <v>0.1030973797137751</v>
       </c>
       <c r="E91">
-        <v>0.2359043274345178</v>
+        <v>0.2607630250668017</v>
       </c>
       <c r="F91">
-        <v>-0.06220857029396557</v>
+        <v>0.03663917540131525</v>
       </c>
       <c r="G91">
-        <v>0.1969363499075898</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01926191759372981</v>
+      </c>
+      <c r="H91">
+        <v>-0.002856700275816515</v>
+      </c>
+      <c r="I91">
+        <v>-0.1437018700207869</v>
+      </c>
+      <c r="J91">
+        <v>0.343994915682229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03971035034608732</v>
+        <v>0.0604946396742329</v>
       </c>
       <c r="C92">
-        <v>0.4511569077088641</v>
+        <v>0.4755030227510135</v>
       </c>
       <c r="D92">
-        <v>-0.2000310891587594</v>
+        <v>-0.07396085198502084</v>
       </c>
       <c r="E92">
-        <v>0.1317792107049703</v>
+        <v>0.1380264015940886</v>
       </c>
       <c r="F92">
-        <v>-0.04956687432546224</v>
+        <v>0.02168316881643375</v>
       </c>
       <c r="G92">
-        <v>0.5132066531546891</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04389379983461774</v>
+      </c>
+      <c r="H92">
+        <v>0.5697300803017645</v>
+      </c>
+      <c r="I92">
+        <v>-0.5395204536935182</v>
+      </c>
+      <c r="J92">
+        <v>-0.2964862088185209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.03899468034602842</v>
+        <v>0.02150003175504883</v>
       </c>
       <c r="C93">
-        <v>0.3634250209502219</v>
+        <v>0.4053913891396296</v>
       </c>
       <c r="D93">
-        <v>-0.05944541522906716</v>
+        <v>-0.05148655226330128</v>
       </c>
       <c r="E93">
-        <v>0.06252947978784144</v>
+        <v>0.03307858747212327</v>
       </c>
       <c r="F93">
-        <v>-0.006961707155411426</v>
+        <v>0.0194817903493628</v>
       </c>
       <c r="G93">
-        <v>0.01980795531716238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04257019277606755</v>
+      </c>
+      <c r="H93">
+        <v>-0.05535476905047983</v>
+      </c>
+      <c r="I93">
+        <v>0.1647824793728844</v>
+      </c>
+      <c r="J93">
+        <v>0.158507927686032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3206866287259847</v>
+        <v>0.3335924859300903</v>
       </c>
       <c r="C94">
-        <v>-0.01383595793846324</v>
+        <v>-0.02609732583808417</v>
       </c>
       <c r="D94">
-        <v>0.05158123125952773</v>
+        <v>0.1580229966291059</v>
       </c>
       <c r="E94">
-        <v>0.5770351625065566</v>
+        <v>0.4257630433151793</v>
       </c>
       <c r="F94">
-        <v>-0.3459579501536351</v>
+        <v>0.1174549692483875</v>
       </c>
       <c r="G94">
-        <v>-0.1856178871667254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1855774876184465</v>
+      </c>
+      <c r="H94">
+        <v>0.04006157855968662</v>
+      </c>
+      <c r="I94">
+        <v>0.4932752305131413</v>
+      </c>
+      <c r="J94">
+        <v>-0.5303102046477118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.185344522421649</v>
+        <v>0.1434724774034773</v>
       </c>
       <c r="C95">
-        <v>0.04658583365312496</v>
+        <v>-0.05274217125798195</v>
       </c>
       <c r="D95">
-        <v>0.06158561609671501</v>
+        <v>0.0282485269878296</v>
       </c>
       <c r="E95">
-        <v>0.2342392541057876</v>
+        <v>-0.00760195025007001</v>
       </c>
       <c r="F95">
-        <v>0.9068771373526638</v>
+        <v>0.05948278525670381</v>
       </c>
       <c r="G95">
-        <v>-0.03286833278135479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9301994058390389</v>
+      </c>
+      <c r="H95">
+        <v>-0.08793535898471276</v>
+      </c>
+      <c r="I95">
+        <v>0.0531691419352858</v>
+      </c>
+      <c r="J95">
+        <v>-0.222703604200902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2080508914387806</v>
+        <v>0.2057460410964607</v>
       </c>
       <c r="C98">
-        <v>0.1524418782160878</v>
+        <v>0.09763862622131157</v>
       </c>
       <c r="D98">
-        <v>-0.01179626845956426</v>
+        <v>-0.008235468623686428</v>
       </c>
       <c r="E98">
-        <v>-0.1025984935579684</v>
+        <v>-0.1628968098005192</v>
       </c>
       <c r="F98">
-        <v>-0.003730860348322208</v>
+        <v>0.07031725214829841</v>
       </c>
       <c r="G98">
-        <v>-0.2457239065781175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06738180122944108</v>
+      </c>
+      <c r="H98">
+        <v>-0.3002783600110105</v>
+      </c>
+      <c r="I98">
+        <v>-0.1910131915606954</v>
+      </c>
+      <c r="J98">
+        <v>-0.1179331564655202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.01894010481502966</v>
+        <v>0.01353781104838134</v>
       </c>
       <c r="C101">
-        <v>-0.01469199988106116</v>
+        <v>-0.02808192101041102</v>
       </c>
       <c r="D101">
-        <v>0.01784921584343</v>
+        <v>0.02374622738331931</v>
       </c>
       <c r="E101">
-        <v>-0.03883863684115743</v>
+        <v>-0.06155319721758099</v>
       </c>
       <c r="F101">
-        <v>0.001568715700953648</v>
+        <v>-0.03411623065260758</v>
       </c>
       <c r="G101">
-        <v>0.04201519583792267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.001427293776471155</v>
+      </c>
+      <c r="H101">
+        <v>0.1248533161233942</v>
+      </c>
+      <c r="I101">
+        <v>0.01527223519679555</v>
+      </c>
+      <c r="J101">
+        <v>-0.005982873053525059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1208903252240392</v>
+        <v>0.1208627263456887</v>
       </c>
       <c r="C102">
-        <v>0.001575396319863605</v>
+        <v>-0.02376605719372342</v>
       </c>
       <c r="D102">
-        <v>0.04877403802978107</v>
+        <v>0.05299075311253122</v>
       </c>
       <c r="E102">
-        <v>0.0674282044121127</v>
+        <v>0.08143686655455752</v>
       </c>
       <c r="F102">
-        <v>0.02897180697065745</v>
+        <v>-0.002075962838073932</v>
       </c>
       <c r="G102">
-        <v>0.01473925462813932</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04255797064325707</v>
+      </c>
+      <c r="H102">
+        <v>-0.004766274797650931</v>
+      </c>
+      <c r="I102">
+        <v>0.001440983029964029</v>
+      </c>
+      <c r="J102">
+        <v>0.06414833520458345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01562020807870084</v>
+        <v>0.02192011187576087</v>
       </c>
       <c r="C103">
-        <v>-0.002055749530043505</v>
+        <v>-0.005630682968807111</v>
       </c>
       <c r="D103">
-        <v>0.01493377293199225</v>
+        <v>0.01752522826785672</v>
       </c>
       <c r="E103">
-        <v>0.02963648701089202</v>
+        <v>0.01712605029874628</v>
       </c>
       <c r="F103">
-        <v>-0.008855507074138912</v>
+        <v>0.0002244038219372375</v>
       </c>
       <c r="G103">
-        <v>-0.01025602048840697</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01571034565591199</v>
+      </c>
+      <c r="H103">
+        <v>0.001744156940003554</v>
+      </c>
+      <c r="I103">
+        <v>0.02355091132846563</v>
+      </c>
+      <c r="J103">
+        <v>0.003260989813481991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
